--- a/data/raw/transcribed_10530_2016_1278_MOESM2_ESM.xlsx
+++ b/data/raw/transcribed_10530_2016_1278_MOESM2_ESM.xlsx
@@ -2209,9 +2209,6 @@
     </r>
   </si>
   <si>
-    <t>4,5,8,10,11,12,15,,17,18,21</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Ocinebrellus inornatus </t>
     </r>
@@ -5936,6 +5933,9 @@
   </si>
   <si>
     <t>pathway_import_release</t>
+  </si>
+  <si>
+    <t>4,5,8,10,11,12,15,17,18,21</t>
   </si>
 </sst>
 </file>
@@ -6519,8 +6519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V360"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="V136" sqref="V136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6533,70 +6533,70 @@
   <sheetData>
     <row r="1" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>610</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>587</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>588</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="25" t="s">
         <v>589</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>590</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>591</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>592</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="25" t="s">
         <v>593</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="K1" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="M1" s="23" t="s">
         <v>595</v>
       </c>
-      <c r="L1" s="24" t="s">
-        <v>614</v>
-      </c>
-      <c r="M1" s="23" t="s">
+      <c r="N1" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="O1" s="25" t="s">
         <v>597</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="P1" s="24" t="s">
         <v>598</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="23" t="s">
         <v>599</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>600</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>601</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="T1" s="25" t="s">
         <v>602</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>603</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
@@ -6604,7 +6604,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
@@ -6642,7 +6642,7 @@
         <v>4</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
@@ -6650,7 +6650,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -6694,7 +6694,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
@@ -6740,7 +6740,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
@@ -6794,7 +6794,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
@@ -6844,7 +6844,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
@@ -6894,7 +6894,7 @@
         <v>4</v>
       </c>
       <c r="V7" s="35" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
@@ -6902,7 +6902,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
@@ -6954,7 +6954,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>2</v>
@@ -7014,7 +7014,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
@@ -7070,7 +7070,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
@@ -7124,7 +7124,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>2</v>
@@ -7174,7 +7174,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>2</v>
@@ -7230,7 +7230,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>2</v>
@@ -7286,7 +7286,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>2</v>
@@ -7340,7 +7340,7 @@
         <v>39</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>2</v>
@@ -7398,7 +7398,7 @@
         <v>42</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>2</v>
@@ -7452,7 +7452,7 @@
         <v>44</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>2</v>
@@ -7506,7 +7506,7 @@
         <v>47</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -7546,7 +7546,7 @@
         <v>49</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>2</v>
@@ -7602,7 +7602,7 @@
         <v>50</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>2</v>
@@ -7660,7 +7660,7 @@
         <v>53</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>2</v>
@@ -7716,7 +7716,7 @@
         <v>55</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>2</v>
@@ -7766,7 +7766,7 @@
         <v>40</v>
       </c>
       <c r="V23" s="35" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
@@ -7774,7 +7774,7 @@
         <v>56</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
@@ -7824,7 +7824,7 @@
         <v>58</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>2</v>
@@ -7882,7 +7882,7 @@
         <v>60</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>2</v>
@@ -7940,7 +7940,7 @@
         <v>62</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>2</v>
@@ -7988,7 +7988,7 @@
         <v>64</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>2</v>
@@ -8048,7 +8048,7 @@
         <v>66</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>2</v>
@@ -8106,7 +8106,7 @@
         <v>68</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>2</v>
@@ -8160,7 +8160,7 @@
         <v>70</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>2</v>
@@ -8208,7 +8208,7 @@
         <v>73</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>2</v>
@@ -8268,7 +8268,7 @@
         <v>75</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>2</v>
@@ -8326,7 +8326,7 @@
         <v>76</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>2</v>
@@ -8382,7 +8382,7 @@
         <v>77</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>2</v>
@@ -8434,7 +8434,7 @@
         <v>79</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -8478,7 +8478,7 @@
         <v>81</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>2</v>
@@ -8522,7 +8522,7 @@
         <v>82</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>2</v>
@@ -8580,7 +8580,7 @@
         <v>84</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>2</v>
@@ -8636,7 +8636,7 @@
         <v>85</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>2</v>
@@ -8674,7 +8674,7 @@
         <v>88</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>2</v>
@@ -8732,7 +8732,7 @@
         <v>90</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>2</v>
@@ -8788,7 +8788,7 @@
         <v>91</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>2</v>
@@ -8836,7 +8836,7 @@
         <v>92</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>2</v>
@@ -8894,7 +8894,7 @@
         <v>94</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>2</v>
@@ -8950,7 +8950,7 @@
         <v>96</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>2</v>
@@ -9006,7 +9006,7 @@
         <v>97</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>2</v>
@@ -9062,7 +9062,7 @@
         <v>100</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>2</v>
@@ -9118,7 +9118,7 @@
         <v>101</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>2</v>
@@ -9174,7 +9174,7 @@
         <v>104</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>2</v>
@@ -9234,7 +9234,7 @@
         <v>106</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>2</v>
@@ -9290,7 +9290,7 @@
         <v>107</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>2</v>
@@ -9350,7 +9350,7 @@
         <v>108</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>2</v>
@@ -9410,7 +9410,7 @@
         <v>109</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>2</v>
@@ -9458,7 +9458,7 @@
         <v>111</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
@@ -9506,7 +9506,7 @@
         <v>112</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4" t="s">
@@ -9544,7 +9544,7 @@
         <v>113</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>2</v>
@@ -9598,7 +9598,7 @@
         <v>115</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>2</v>
@@ -9648,7 +9648,7 @@
         <v>118</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>2</v>
@@ -9698,7 +9698,7 @@
         <v>120</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>2</v>
@@ -9752,7 +9752,7 @@
         <v>122</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>2</v>
@@ -9810,7 +9810,7 @@
         <v>123</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>2</v>
@@ -9852,7 +9852,7 @@
         <v>124</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>2</v>
@@ -9908,7 +9908,7 @@
         <v>125</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>2</v>
@@ -9964,7 +9964,7 @@
         <v>126</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>2</v>
@@ -10020,7 +10020,7 @@
         <v>127</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>2</v>
@@ -10072,7 +10072,7 @@
         <v>128</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>2</v>
@@ -10120,7 +10120,7 @@
         <v>129</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>2</v>
@@ -10168,7 +10168,7 @@
         <v>131</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>2</v>
@@ -10224,7 +10224,7 @@
         <v>133</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>2</v>
@@ -10278,7 +10278,7 @@
         <v>134</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>2</v>
@@ -10336,7 +10336,7 @@
         <v>137</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>2</v>
@@ -10394,7 +10394,7 @@
         <v>139</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>2</v>
@@ -10448,7 +10448,7 @@
         <v>140</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>2</v>
@@ -10502,7 +10502,7 @@
         <v>141</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -10544,7 +10544,7 @@
         <v>143</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6" t="s">
@@ -10586,7 +10586,7 @@
         <v>145</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>2</v>
@@ -10624,7 +10624,7 @@
         <v>147</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>2</v>
@@ -10678,7 +10678,7 @@
         <v>149</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>2</v>
@@ -10718,7 +10718,7 @@
         <v>150</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>2</v>
@@ -10758,7 +10758,7 @@
         <v>152</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -10802,7 +10802,7 @@
         <v>154</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>2</v>
@@ -10852,7 +10852,7 @@
         <v>156</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>2</v>
@@ -10892,7 +10892,7 @@
         <v>157</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6" t="s">
@@ -10934,7 +10934,7 @@
         <v>158</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -10974,7 +10974,7 @@
         <v>160</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>2</v>
@@ -11018,7 +11018,7 @@
         <v>163</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>2</v>
@@ -11056,7 +11056,7 @@
         <v>164</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -11098,7 +11098,7 @@
         <v>166</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>2</v>
@@ -11146,7 +11146,7 @@
         <v>168</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>2</v>
@@ -11184,7 +11184,7 @@
         <v>169</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>2</v>
@@ -11222,7 +11222,7 @@
         <v>170</v>
       </c>
       <c r="B92" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>2</v>
@@ -11270,7 +11270,7 @@
         <v>172</v>
       </c>
       <c r="B93" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6" t="s">
@@ -11314,7 +11314,7 @@
         <v>174</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6" t="s">
@@ -11362,7 +11362,7 @@
         <v>177</v>
       </c>
       <c r="B95" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>2</v>
@@ -11414,7 +11414,7 @@
         <v>180</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>2</v>
@@ -11454,7 +11454,7 @@
         <v>181</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>2</v>
@@ -11512,7 +11512,7 @@
         <v>183</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>2</v>
@@ -11562,7 +11562,7 @@
         <v>185</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6" t="s">
@@ -11606,7 +11606,7 @@
         <v>186</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C100" s="6"/>
       <c r="D100" s="6" t="s">
@@ -11650,7 +11650,7 @@
         <v>187</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>2</v>
@@ -11706,7 +11706,7 @@
         <v>189</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>2</v>
@@ -11764,7 +11764,7 @@
         <v>190</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C103" s="6"/>
       <c r="D103" s="6" t="s">
@@ -11804,7 +11804,7 @@
         <v>191</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>2</v>
@@ -11856,7 +11856,7 @@
         <v>193</v>
       </c>
       <c r="B105" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>2</v>
@@ -11910,7 +11910,7 @@
         <v>195</v>
       </c>
       <c r="B106" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="6" t="s">
@@ -11960,7 +11960,7 @@
         <v>197</v>
       </c>
       <c r="B107" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>2</v>
@@ -12014,7 +12014,7 @@
         <v>199</v>
       </c>
       <c r="B108" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>2</v>
@@ -12054,7 +12054,7 @@
         <v>201</v>
       </c>
       <c r="B109" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6" t="s">
@@ -12096,7 +12096,7 @@
         <v>202</v>
       </c>
       <c r="B110" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -12136,7 +12136,7 @@
         <v>203</v>
       </c>
       <c r="B111" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -12174,7 +12174,7 @@
         <v>204</v>
       </c>
       <c r="B112" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6" t="s">
@@ -12218,7 +12218,7 @@
         <v>206</v>
       </c>
       <c r="B113" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -12256,7 +12256,7 @@
         <v>208</v>
       </c>
       <c r="B114" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>2</v>
@@ -12294,7 +12294,7 @@
         <v>209</v>
       </c>
       <c r="B115" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6" t="s">
@@ -12336,7 +12336,7 @@
         <v>210</v>
       </c>
       <c r="B116" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>2</v>
@@ -12384,7 +12384,7 @@
         <v>212</v>
       </c>
       <c r="B117" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6" t="s">
@@ -12424,7 +12424,7 @@
         <v>213</v>
       </c>
       <c r="B118" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>2</v>
@@ -12476,7 +12476,7 @@
         <v>215</v>
       </c>
       <c r="B119" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -12516,7 +12516,7 @@
         <v>217</v>
       </c>
       <c r="B120" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6" t="s">
@@ -12554,7 +12554,7 @@
         <v>219</v>
       </c>
       <c r="B121" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>2</v>
@@ -12596,7 +12596,7 @@
         <v>220</v>
       </c>
       <c r="B122" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>2</v>
@@ -12634,7 +12634,7 @@
         <v>221</v>
       </c>
       <c r="B123" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -12672,7 +12672,7 @@
         <v>222</v>
       </c>
       <c r="B124" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>2</v>
@@ -12712,7 +12712,7 @@
         <v>223</v>
       </c>
       <c r="B125" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>2</v>
@@ -12750,7 +12750,7 @@
         <v>224</v>
       </c>
       <c r="B126" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6" t="s">
@@ -12790,7 +12790,7 @@
         <v>225</v>
       </c>
       <c r="B127" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -12828,7 +12828,7 @@
         <v>227</v>
       </c>
       <c r="B128" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>2</v>
@@ -12876,7 +12876,7 @@
         <v>229</v>
       </c>
       <c r="B129" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>2</v>
@@ -12938,7 +12938,7 @@
         <v>231</v>
       </c>
       <c r="B130" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>2</v>
@@ -12986,7 +12986,7 @@
         <v>232</v>
       </c>
       <c r="B131" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>2</v>
@@ -13034,7 +13034,7 @@
         <v>233</v>
       </c>
       <c r="B132" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C132" s="6"/>
       <c r="D132" s="6" t="s">
@@ -13074,7 +13074,7 @@
         <v>235</v>
       </c>
       <c r="B133" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>2</v>
@@ -13122,7 +13122,7 @@
         <v>237</v>
       </c>
       <c r="B134" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>2</v>
@@ -13180,7 +13180,7 @@
         <v>239</v>
       </c>
       <c r="B135" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>2</v>
@@ -13226,15 +13226,15 @@
         <v>175</v>
       </c>
       <c r="V135" s="6" t="s">
-        <v>240</v>
+        <v>614</v>
       </c>
     </row>
     <row r="136" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B136" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6" t="s">
@@ -13274,15 +13274,15 @@
         <v>144</v>
       </c>
       <c r="V136" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="137" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B137" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6" t="s">
@@ -13319,10 +13319,10 @@
     </row>
     <row r="138" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B138" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -13357,10 +13357,10 @@
     </row>
     <row r="139" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B139" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6" t="s">
@@ -13399,10 +13399,10 @@
     </row>
     <row r="140" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B140" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C140" s="6"/>
       <c r="D140" s="6" t="s">
@@ -13441,10 +13441,10 @@
     </row>
     <row r="141" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B141" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6" t="s">
@@ -13483,10 +13483,10 @@
     </row>
     <row r="142" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B142" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C142" s="6"/>
       <c r="D142" s="6" t="s">
@@ -13525,10 +13525,10 @@
     </row>
     <row r="143" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B143" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>2</v>
@@ -13567,10 +13567,10 @@
     </row>
     <row r="144" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B144" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6" t="s">
@@ -13604,15 +13604,15 @@
         <v>144</v>
       </c>
       <c r="V144" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="145" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B145" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -13649,10 +13649,10 @@
     </row>
     <row r="146" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B146" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>2</v>
@@ -13675,7 +13675,7 @@
         <v>1899</v>
       </c>
       <c r="K146" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L146" s="4" t="s">
         <v>2</v>
@@ -13700,15 +13700,15 @@
         <v>144</v>
       </c>
       <c r="V146" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="147" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B147" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>2</v>
@@ -13748,15 +13748,15 @@
         <v>40</v>
       </c>
       <c r="V147" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="148" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B148" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>2</v>
@@ -13792,15 +13792,15 @@
         <v>40</v>
       </c>
       <c r="V148" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="149" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B149" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>2</v>
@@ -13819,7 +13819,7 @@
       <c r="I149" s="6"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
@@ -13838,15 +13838,15 @@
         <v>144</v>
       </c>
       <c r="V149" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="150" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B150" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>2</v>
@@ -13890,15 +13890,15 @@
         <v>175</v>
       </c>
       <c r="V150" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="151" spans="1:22" ht="51" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B151" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -13917,7 +13917,7 @@
         <v>10</v>
       </c>
       <c r="K151" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L151" s="4"/>
       <c r="M151" s="4"/>
@@ -13934,15 +13934,15 @@
         <v>144</v>
       </c>
       <c r="V151" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="152" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B152" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>2</v>
@@ -13979,10 +13979,10 @@
     </row>
     <row r="153" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B153" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -14014,15 +14014,15 @@
         <v>175</v>
       </c>
       <c r="V153" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="154" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B154" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>2</v>
@@ -14074,15 +14074,15 @@
         <v>144</v>
       </c>
       <c r="V154" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="155" spans="1:22" ht="51" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B155" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>2</v>
@@ -14126,15 +14126,15 @@
         <v>144</v>
       </c>
       <c r="V155" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="156" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B156" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>2</v>
@@ -14143,7 +14143,7 @@
       <c r="E156" s="6"/>
       <c r="F156" s="7"/>
       <c r="G156" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H156" s="6"/>
       <c r="I156" s="6"/>
@@ -14171,10 +14171,10 @@
     </row>
     <row r="157" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B157" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C157" s="12"/>
       <c r="D157" s="6" t="s">
@@ -14210,15 +14210,15 @@
         <v>40</v>
       </c>
       <c r="V157" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B158" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
@@ -14253,10 +14253,10 @@
     </row>
     <row r="159" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B159" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>2</v>
@@ -14288,15 +14288,15 @@
         <v>40</v>
       </c>
       <c r="V159" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="160" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B160" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>2</v>
@@ -14339,10 +14339,10 @@
     </row>
     <row r="161" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B161" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>2</v>
@@ -14385,10 +14385,10 @@
     </row>
     <row r="162" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B162" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>2</v>
@@ -14431,10 +14431,10 @@
     </row>
     <row r="163" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B163" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>2</v>
@@ -14480,15 +14480,15 @@
         <v>144</v>
       </c>
       <c r="V163" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="164" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B164" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>2</v>
@@ -14523,10 +14523,10 @@
     </row>
     <row r="165" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B165" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>2</v>
@@ -14569,10 +14569,10 @@
     </row>
     <row r="166" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B166" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>2</v>
@@ -14612,15 +14612,15 @@
         <v>144</v>
       </c>
       <c r="V166" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="167" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B167" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>2</v>
@@ -14654,15 +14654,15 @@
         <v>144</v>
       </c>
       <c r="V167" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="168" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B168" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>2</v>
@@ -14705,10 +14705,10 @@
     </row>
     <row r="169" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B169" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>2</v>
@@ -14748,15 +14748,15 @@
         <v>175</v>
       </c>
       <c r="V169" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="170" spans="1:22" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B170" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
@@ -14797,10 +14797,10 @@
     </row>
     <row r="171" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B171" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -14830,15 +14830,15 @@
         <v>40</v>
       </c>
       <c r="V171" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="172" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B172" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>2</v>
@@ -14886,15 +14886,15 @@
         <v>175</v>
       </c>
       <c r="V172" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="173" spans="1:22" ht="51" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B173" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -14930,15 +14930,15 @@
         <v>175</v>
       </c>
       <c r="V173" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="174" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B174" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>2</v>
@@ -14986,15 +14986,15 @@
         <v>175</v>
       </c>
       <c r="V174" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="175" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B175" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -15024,15 +15024,15 @@
         <v>175</v>
       </c>
       <c r="V175" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="176" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B176" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>2</v>
@@ -15072,15 +15072,15 @@
         <v>40</v>
       </c>
       <c r="V176" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="177" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B177" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>2</v>
@@ -15114,15 +15114,15 @@
         <v>40</v>
       </c>
       <c r="V177" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="178" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B178" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>2</v>
@@ -15174,30 +15174,30 @@
         <v>40</v>
       </c>
       <c r="V178" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="179" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B179" s="34" t="s">
+        <v>606</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G179" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="B179" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G179" s="4" t="s">
-        <v>314</v>
       </c>
       <c r="H179" s="4">
         <v>1950</v>
@@ -15226,15 +15226,15 @@
         <v>40</v>
       </c>
       <c r="V179" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="180" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B180" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="4" t="s">
@@ -15268,15 +15268,15 @@
         <v>175</v>
       </c>
       <c r="V180" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="181" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B181" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="4" t="s">
@@ -15312,15 +15312,15 @@
         <v>40</v>
       </c>
       <c r="V181" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="182" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B182" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>2</v>
@@ -15356,15 +15356,15 @@
         <v>175</v>
       </c>
       <c r="V182" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="183" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B183" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>2</v>
@@ -15394,15 +15394,15 @@
         <v>40</v>
       </c>
       <c r="V183" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="184" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B184" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>2</v>
@@ -15454,15 +15454,15 @@
         <v>40</v>
       </c>
       <c r="V184" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="185" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A185" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B185" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>2</v>
@@ -15510,15 +15510,15 @@
         <v>40</v>
       </c>
       <c r="V185" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="186" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B186" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>2</v>
@@ -15554,15 +15554,15 @@
         <v>40</v>
       </c>
       <c r="V186" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="187" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B187" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4" t="s">
@@ -15592,15 +15592,15 @@
         <v>40</v>
       </c>
       <c r="V187" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="188" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B188" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>2</v>
@@ -15636,15 +15636,15 @@
         <v>40</v>
       </c>
       <c r="V188" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="189" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B189" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4" t="s">
@@ -15690,15 +15690,15 @@
         <v>40</v>
       </c>
       <c r="V189" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="190" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B190" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>2</v>
@@ -15740,15 +15740,15 @@
         <v>40</v>
       </c>
       <c r="V190" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="191" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B191" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>2</v>
@@ -15790,15 +15790,15 @@
         <v>40</v>
       </c>
       <c r="V191" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="192" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B192" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="4" t="s">
@@ -15845,10 +15845,10 @@
     </row>
     <row r="193" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B193" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -15878,15 +15878,15 @@
         <v>175</v>
       </c>
       <c r="V193" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="194" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B194" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
@@ -15901,7 +15901,7 @@
       </c>
       <c r="J194" s="5"/>
       <c r="K194" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L194" s="4"/>
       <c r="M194" s="4" t="s">
@@ -15920,15 +15920,15 @@
         <v>40</v>
       </c>
       <c r="V194" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="195" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B195" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4" t="s">
@@ -15968,15 +15968,15 @@
         <v>40</v>
       </c>
       <c r="V195" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="196" spans="1:22" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B196" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>2</v>
@@ -16003,7 +16003,7 @@
         <v>1968</v>
       </c>
       <c r="K196" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L196" s="4" t="s">
         <v>2</v>
@@ -16028,15 +16028,15 @@
         <v>40</v>
       </c>
       <c r="V196" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="197" spans="1:22" ht="51" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B197" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>2</v>
@@ -16066,15 +16066,15 @@
         <v>40</v>
       </c>
       <c r="V197" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="198" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B198" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4" t="s">
@@ -16108,15 +16108,15 @@
         <v>40</v>
       </c>
       <c r="V198" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="199" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B199" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4" t="s">
@@ -16152,15 +16152,15 @@
         <v>40</v>
       </c>
       <c r="V199" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="200" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B200" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>2</v>
@@ -16202,15 +16202,15 @@
         <v>40</v>
       </c>
       <c r="V200" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="201" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B201" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C201" s="27" t="s">
         <v>2</v>
@@ -16254,15 +16254,15 @@
         <v>40</v>
       </c>
       <c r="V201" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="202" spans="1:22" ht="51" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B202" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>2</v>
@@ -16316,15 +16316,15 @@
         <v>40</v>
       </c>
       <c r="V202" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="203" spans="1:22" ht="51" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B203" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>2</v>
@@ -16376,15 +16376,15 @@
         <v>40</v>
       </c>
       <c r="V203" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="204" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B204" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>2</v>
@@ -16418,15 +16418,15 @@
         <v>40</v>
       </c>
       <c r="V204" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="205" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A205" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B205" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>2</v>
@@ -16474,15 +16474,15 @@
         <v>40</v>
       </c>
       <c r="V205" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="206" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B206" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>2</v>
@@ -16534,15 +16534,15 @@
         <v>40</v>
       </c>
       <c r="V206" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="207" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B207" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>2</v>
@@ -16590,15 +16590,15 @@
         <v>40</v>
       </c>
       <c r="V207" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="208" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B208" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>2</v>
@@ -16648,15 +16648,15 @@
         <v>40</v>
       </c>
       <c r="V208" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="209" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B209" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>2</v>
@@ -16690,15 +16690,15 @@
         <v>40</v>
       </c>
       <c r="V209" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="210" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B210" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -16738,15 +16738,15 @@
         <v>175</v>
       </c>
       <c r="V210" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="211" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A211" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B211" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>2</v>
@@ -16792,15 +16792,15 @@
         <v>40</v>
       </c>
       <c r="V211" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="212" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B212" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>2</v>
@@ -16852,15 +16852,15 @@
         <v>40</v>
       </c>
       <c r="V212" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="213" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B213" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
@@ -16896,15 +16896,15 @@
         <v>40</v>
       </c>
       <c r="V213" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="214" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B214" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>2</v>
@@ -16940,15 +16940,15 @@
         <v>40</v>
       </c>
       <c r="V214" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="215" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B215" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>2</v>
@@ -16986,15 +16986,15 @@
         <v>40</v>
       </c>
       <c r="V215" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="216" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B216" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -17024,15 +17024,15 @@
         <v>175</v>
       </c>
       <c r="V216" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="217" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A217" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B217" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -17062,15 +17062,15 @@
         <v>175</v>
       </c>
       <c r="V217" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="218" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B218" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C218" s="4"/>
       <c r="D218" s="4" t="s">
@@ -17112,15 +17112,15 @@
         <v>175</v>
       </c>
       <c r="V218" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="219" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A219" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B219" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>2</v>
@@ -17154,15 +17154,15 @@
         <v>40</v>
       </c>
       <c r="V219" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="220" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B220" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>2</v>
@@ -17177,7 +17177,7 @@
       <c r="I220" s="4"/>
       <c r="J220" s="5"/>
       <c r="K220" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L220" s="4" t="s">
         <v>2</v>
@@ -17202,15 +17202,15 @@
         <v>175</v>
       </c>
       <c r="V220" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="221" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B221" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>2</v>
@@ -17225,7 +17225,7 @@
       <c r="I221" s="4"/>
       <c r="J221" s="5"/>
       <c r="K221" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L221" s="4" t="s">
         <v>2</v>
@@ -17246,15 +17246,15 @@
         <v>175</v>
       </c>
       <c r="V221" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="222" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B222" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>2</v>
@@ -17281,7 +17281,7 @@
         <v>1982</v>
       </c>
       <c r="K222" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L222" s="4" t="s">
         <v>2</v>
@@ -17309,10 +17309,10 @@
     </row>
     <row r="223" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B223" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>2</v>
@@ -17339,7 +17339,7 @@
         <v>1898</v>
       </c>
       <c r="K223" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L223" s="4" t="s">
         <v>2</v>
@@ -17360,15 +17360,15 @@
         <v>40</v>
       </c>
       <c r="V223" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="224" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B224" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>2</v>
@@ -17391,7 +17391,7 @@
         <v>1877</v>
       </c>
       <c r="K224" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L224" s="4" t="s">
         <v>2</v>
@@ -17416,15 +17416,15 @@
         <v>40</v>
       </c>
       <c r="V224" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="225" spans="1:22" ht="51" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B225" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>2</v>
@@ -17463,10 +17463,10 @@
     </row>
     <row r="226" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B226" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>2</v>
@@ -17500,15 +17500,15 @@
         <v>40</v>
       </c>
       <c r="V226" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="227" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A227" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B227" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>2</v>
@@ -17544,15 +17544,15 @@
         <v>40</v>
       </c>
       <c r="V227" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="228" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B228" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C228" s="4"/>
       <c r="D228" s="4" t="s">
@@ -17589,10 +17589,10 @@
     </row>
     <row r="229" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B229" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C229" s="4"/>
       <c r="D229" s="4" t="s">
@@ -17631,10 +17631,10 @@
     </row>
     <row r="230" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B230" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>2</v>
@@ -17690,15 +17690,15 @@
         <v>40</v>
       </c>
       <c r="V230" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="231" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B231" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4" t="s">
@@ -17733,10 +17733,10 @@
     </row>
     <row r="232" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B232" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>2</v>
@@ -17782,15 +17782,15 @@
         <v>144</v>
       </c>
       <c r="V232" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="233" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B233" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C233" s="4"/>
       <c r="D233" s="4" t="s">
@@ -17832,30 +17832,30 @@
         <v>40</v>
       </c>
       <c r="V233" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="234" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B234" s="34" t="s">
+        <v>606</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G234" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="B234" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D234" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E234" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F234" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G234" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="H234" s="4">
         <v>1983</v>
@@ -17894,15 +17894,15 @@
         <v>40</v>
       </c>
       <c r="V234" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="235" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B235" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>2</v>
@@ -17940,15 +17940,15 @@
         <v>40</v>
       </c>
       <c r="V235" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="236" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B236" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>2</v>
@@ -17978,15 +17978,15 @@
         <v>40</v>
       </c>
       <c r="V236" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="237" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B237" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
@@ -18021,10 +18021,10 @@
     </row>
     <row r="238" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B238" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>2</v>
@@ -18039,7 +18039,7 @@
       <c r="I238" s="4"/>
       <c r="J238" s="5"/>
       <c r="K238" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L238" s="4" t="s">
         <v>2</v>
@@ -18058,15 +18058,15 @@
         <v>40</v>
       </c>
       <c r="V238" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="239" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B239" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4" t="s">
@@ -18085,7 +18085,7 @@
         <v>1900</v>
       </c>
       <c r="K239" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L239" s="4" t="s">
         <v>2</v>
@@ -18108,15 +18108,15 @@
         <v>40</v>
       </c>
       <c r="V239" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="240" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B240" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C240" s="27"/>
       <c r="D240" s="28"/>
@@ -18141,10 +18141,10 @@
     </row>
     <row r="241" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B241" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>2</v>
@@ -18183,10 +18183,10 @@
     </row>
     <row r="242" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B242" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>2</v>
@@ -18224,15 +18224,15 @@
         <v>40</v>
       </c>
       <c r="V242" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="243" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B243" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>2</v>
@@ -18282,15 +18282,15 @@
         <v>40</v>
       </c>
       <c r="V243" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="244" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B244" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>2</v>
@@ -18320,15 +18320,15 @@
         <v>40</v>
       </c>
       <c r="V244" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="245" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B245" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -18362,15 +18362,15 @@
         <v>144</v>
       </c>
       <c r="V245" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="246" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B246" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>2</v>
@@ -18418,15 +18418,15 @@
         <v>40</v>
       </c>
       <c r="V246" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="247" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B247" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -18437,7 +18437,7 @@
       <c r="G247" s="4"/>
       <c r="H247" s="4"/>
       <c r="I247" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J247" s="5"/>
       <c r="K247" s="5" t="s">
@@ -18460,15 +18460,15 @@
         <v>175</v>
       </c>
       <c r="V247" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="248" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B248" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C248" s="4"/>
       <c r="D248" s="4" t="s">
@@ -18502,15 +18502,15 @@
         <v>40</v>
       </c>
       <c r="V248" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="249" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A249" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B249" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>2</v>
@@ -18544,15 +18544,15 @@
         <v>40</v>
       </c>
       <c r="V249" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="250" spans="1:22" ht="51" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B250" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -18593,10 +18593,10 @@
     </row>
     <row r="251" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A251" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B251" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>2</v>
@@ -18634,15 +18634,15 @@
         <v>40</v>
       </c>
       <c r="V251" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="252" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B252" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C252" s="4"/>
       <c r="D252" s="4" t="s">
@@ -18688,15 +18688,15 @@
         <v>40</v>
       </c>
       <c r="V252" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="253" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B253" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C253" s="19"/>
       <c r="D253" s="19" t="s">
@@ -18734,15 +18734,15 @@
         <v>40</v>
       </c>
       <c r="V253" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="254" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B254" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>2</v>
@@ -18794,15 +18794,15 @@
         <v>28</v>
       </c>
       <c r="V254" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="255" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B255" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>2</v>
@@ -18852,15 +18852,15 @@
         <v>28</v>
       </c>
       <c r="V255" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="256" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B256" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C256" s="6" t="s">
         <v>2</v>
@@ -18910,15 +18910,15 @@
         <v>28</v>
       </c>
       <c r="V256" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="257" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B257" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>2</v>
@@ -18933,7 +18933,7 @@
       <c r="I257" s="6"/>
       <c r="J257" s="7"/>
       <c r="K257" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L257" s="6"/>
       <c r="M257" s="6" t="s">
@@ -18954,15 +18954,15 @@
         <v>28</v>
       </c>
       <c r="V257" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="258" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B258" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C258" s="6" t="s">
         <v>2</v>
@@ -18981,7 +18981,7 @@
       </c>
       <c r="J258" s="7"/>
       <c r="K258" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L258" s="6"/>
       <c r="M258" s="6" t="s">
@@ -19000,15 +19000,15 @@
         <v>28</v>
       </c>
       <c r="V258" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="259" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B259" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>2</v>
@@ -19050,15 +19050,15 @@
         <v>28</v>
       </c>
       <c r="V259" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="260" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B260" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>2</v>
@@ -19100,15 +19100,15 @@
         <v>28</v>
       </c>
       <c r="V260" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="261" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B261" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>2</v>
@@ -19142,15 +19142,15 @@
         <v>28</v>
       </c>
       <c r="V261" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="262" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B262" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>2</v>
@@ -19184,15 +19184,15 @@
         <v>28</v>
       </c>
       <c r="V262" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="263" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B263" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>2</v>
@@ -19226,15 +19226,15 @@
         <v>28</v>
       </c>
       <c r="V263" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="264" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B264" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>2</v>
@@ -19249,7 +19249,7 @@
       <c r="I264" s="6"/>
       <c r="J264" s="7"/>
       <c r="K264" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L264" s="6"/>
       <c r="M264" s="6" t="s">
@@ -19268,15 +19268,15 @@
         <v>28</v>
       </c>
       <c r="V264" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="265" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B265" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>2</v>
@@ -19314,15 +19314,15 @@
         <v>28</v>
       </c>
       <c r="V265" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="266" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B266" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>2</v>
@@ -19360,15 +19360,15 @@
         <v>28</v>
       </c>
       <c r="V266" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="267" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B267" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>2</v>
@@ -19406,15 +19406,15 @@
         <v>28</v>
       </c>
       <c r="V267" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="268" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B268" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>2</v>
@@ -19448,15 +19448,15 @@
         <v>28</v>
       </c>
       <c r="V268" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="269" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B269" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>2</v>
@@ -19471,7 +19471,7 @@
       <c r="I269" s="6"/>
       <c r="J269" s="7"/>
       <c r="K269" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L269" s="6"/>
       <c r="M269" s="6"/>
@@ -19488,15 +19488,15 @@
         <v>28</v>
       </c>
       <c r="V269" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="270" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B270" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>2</v>
@@ -19533,10 +19533,10 @@
     </row>
     <row r="271" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B271" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>2</v>
@@ -19551,7 +19551,7 @@
       <c r="I271" s="6"/>
       <c r="J271" s="7"/>
       <c r="K271" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L271" s="6"/>
       <c r="M271" s="6" t="s">
@@ -19572,15 +19572,15 @@
         <v>28</v>
       </c>
       <c r="V271" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="272" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B272" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>2</v>
@@ -19617,10 +19617,10 @@
     </row>
     <row r="273" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B273" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C273" s="6" t="s">
         <v>2</v>
@@ -19639,7 +19639,7 @@
         <v>10</v>
       </c>
       <c r="K273" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L273" s="6" t="s">
         <v>2</v>
@@ -19660,15 +19660,15 @@
         <v>28</v>
       </c>
       <c r="V273" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="274" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B274" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C274" s="6" t="s">
         <v>2</v>
@@ -19705,10 +19705,10 @@
     </row>
     <row r="275" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B275" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>2</v>
@@ -19746,15 +19746,15 @@
         <v>28</v>
       </c>
       <c r="V275" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="276" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B276" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C276" s="6" t="s">
         <v>2</v>
@@ -19769,7 +19769,7 @@
       <c r="I276" s="6"/>
       <c r="J276" s="7"/>
       <c r="K276" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L276" s="6" t="s">
         <v>2</v>
@@ -19792,15 +19792,15 @@
         <v>28</v>
       </c>
       <c r="V276" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="277" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B277" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>2</v>
@@ -19815,7 +19815,7 @@
       <c r="I277" s="6"/>
       <c r="J277" s="7"/>
       <c r="K277" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L277" s="6"/>
       <c r="M277" s="6" t="s">
@@ -19834,15 +19834,15 @@
         <v>28</v>
       </c>
       <c r="V277" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="278" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B278" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>2</v>
@@ -19874,15 +19874,15 @@
         <v>28</v>
       </c>
       <c r="V278" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="279" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B279" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>2</v>
@@ -19901,7 +19901,7 @@
         <v>10</v>
       </c>
       <c r="K279" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L279" s="6"/>
       <c r="M279" s="6" t="s">
@@ -19922,15 +19922,15 @@
         <v>28</v>
       </c>
       <c r="V279" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="280" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B280" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C280" s="6" t="s">
         <v>2</v>
@@ -19978,15 +19978,15 @@
         <v>28</v>
       </c>
       <c r="V280" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="281" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B281" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C281" s="6" t="s">
         <v>2</v>
@@ -20034,15 +20034,15 @@
         <v>28</v>
       </c>
       <c r="V281" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="282" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B282" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C282" s="6" t="s">
         <v>2</v>
@@ -20065,7 +20065,7 @@
         <v>10</v>
       </c>
       <c r="K282" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L282" s="6" t="s">
         <v>2</v>
@@ -20088,15 +20088,15 @@
         <v>28</v>
       </c>
       <c r="V282" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="283" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B283" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>2</v>
@@ -20115,7 +20115,7 @@
         <v>1998</v>
       </c>
       <c r="K283" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L283" s="6" t="s">
         <v>2</v>
@@ -20138,15 +20138,15 @@
         <v>28</v>
       </c>
       <c r="V283" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="284" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B284" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>2</v>
@@ -20186,15 +20186,15 @@
         <v>28</v>
       </c>
       <c r="V284" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="285" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B285" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>2</v>
@@ -20228,15 +20228,15 @@
         <v>28</v>
       </c>
       <c r="V285" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="286" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B286" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>2</v>
@@ -20278,15 +20278,15 @@
         <v>28</v>
       </c>
       <c r="V286" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="287" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B287" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>2</v>
@@ -20336,15 +20336,15 @@
         <v>28</v>
       </c>
       <c r="V287" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="288" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B288" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C288" s="6" t="s">
         <v>2</v>
@@ -20382,15 +20382,15 @@
         <v>28</v>
       </c>
       <c r="V288" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="289" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B289" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>2</v>
@@ -20424,15 +20424,15 @@
         <v>28</v>
       </c>
       <c r="V289" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="290" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B290" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C290" s="6" t="s">
         <v>2</v>
@@ -20466,15 +20466,15 @@
         <v>28</v>
       </c>
       <c r="V290" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="291" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B291" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C291" s="6" t="s">
         <v>2</v>
@@ -20511,10 +20511,10 @@
     </row>
     <row r="292" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B292" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C292" s="6" t="s">
         <v>2</v>
@@ -20550,15 +20550,15 @@
         <v>28</v>
       </c>
       <c r="V292" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="293" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B293" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C293" s="6" t="s">
         <v>2</v>
@@ -20592,15 +20592,15 @@
         <v>28</v>
       </c>
       <c r="V293" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="294" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B294" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C294" s="6" t="s">
         <v>2</v>
@@ -20634,15 +20634,15 @@
         <v>28</v>
       </c>
       <c r="V294" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="295" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B295" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C295" s="6" t="s">
         <v>2</v>
@@ -20678,15 +20678,15 @@
         <v>28</v>
       </c>
       <c r="V295" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="296" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B296" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C296" s="6" t="s">
         <v>2</v>
@@ -20701,7 +20701,7 @@
       <c r="I296" s="6"/>
       <c r="J296" s="7"/>
       <c r="K296" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L296" s="6"/>
       <c r="M296" s="6" t="s">
@@ -20722,15 +20722,15 @@
         <v>28</v>
       </c>
       <c r="V296" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="297" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A297" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B297" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>2</v>
@@ -20757,7 +20757,7 @@
         <v>1930</v>
       </c>
       <c r="K297" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L297" s="6" t="s">
         <v>2</v>
@@ -20784,15 +20784,15 @@
         <v>28</v>
       </c>
       <c r="V297" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="298" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B298" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>2</v>
@@ -20836,15 +20836,15 @@
         <v>28</v>
       </c>
       <c r="V298" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="299" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B299" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>2</v>
@@ -20871,7 +20871,7 @@
         <v>10</v>
       </c>
       <c r="K299" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L299" s="6" t="s">
         <v>2</v>
@@ -20894,15 +20894,15 @@
         <v>28</v>
       </c>
       <c r="V299" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="300" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B300" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C300" s="6" t="s">
         <v>2</v>
@@ -20936,15 +20936,15 @@
         <v>28</v>
       </c>
       <c r="V300" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="301" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B301" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>2</v>
@@ -20978,15 +20978,15 @@
         <v>28</v>
       </c>
       <c r="V301" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="302" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A302" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B302" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C302" s="6" t="s">
         <v>2</v>
@@ -21001,7 +21001,7 @@
       <c r="I302" s="4"/>
       <c r="J302" s="5"/>
       <c r="K302" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L302" s="6"/>
       <c r="M302" s="6" t="s">
@@ -21020,15 +21020,15 @@
         <v>28</v>
       </c>
       <c r="V302" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="303" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B303" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>2</v>
@@ -21043,7 +21043,7 @@
       <c r="I303" s="6"/>
       <c r="J303" s="7"/>
       <c r="K303" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L303" s="6"/>
       <c r="M303" s="6" t="s">
@@ -21062,15 +21062,15 @@
         <v>28</v>
       </c>
       <c r="V303" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="304" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A304" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B304" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C304" s="6" t="s">
         <v>2</v>
@@ -21112,15 +21112,15 @@
         <v>28</v>
       </c>
       <c r="V304" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="305" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B305" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>2</v>
@@ -21158,15 +21158,15 @@
         <v>28</v>
       </c>
       <c r="V305" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="306" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B306" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>2</v>
@@ -21200,15 +21200,15 @@
         <v>28</v>
       </c>
       <c r="V306" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="307" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B307" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C307" s="6" t="s">
         <v>2</v>
@@ -21231,7 +21231,7 @@
         <v>1980</v>
       </c>
       <c r="K307" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L307" s="6" t="s">
         <v>2</v>
@@ -21254,15 +21254,15 @@
         <v>28</v>
       </c>
       <c r="V307" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="308" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B308" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>2</v>
@@ -21296,15 +21296,15 @@
         <v>28</v>
       </c>
       <c r="V308" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="309" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B309" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C309" s="6" t="s">
         <v>2</v>
@@ -21338,15 +21338,15 @@
         <v>28</v>
       </c>
       <c r="V309" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="310" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B310" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C310" s="6" t="s">
         <v>2</v>
@@ -21398,15 +21398,15 @@
         <v>28</v>
       </c>
       <c r="V310" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="311" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B311" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>2</v>
@@ -21440,15 +21440,15 @@
         <v>28</v>
       </c>
       <c r="V311" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="312" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B312" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>2</v>
@@ -21486,15 +21486,15 @@
         <v>28</v>
       </c>
       <c r="V312" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="313" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B313" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C313" s="6" t="s">
         <v>2</v>
@@ -21528,15 +21528,15 @@
         <v>28</v>
       </c>
       <c r="V313" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="314" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B314" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C314" s="6"/>
       <c r="D314" s="6" t="s">
@@ -21568,15 +21568,15 @@
         <v>28</v>
       </c>
       <c r="V314" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="315" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B315" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C315" s="6" t="s">
         <v>2</v>
@@ -21614,15 +21614,15 @@
         <v>28</v>
       </c>
       <c r="V315" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="316" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B316" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C316" s="6" t="s">
         <v>2</v>
@@ -21656,15 +21656,15 @@
         <v>28</v>
       </c>
       <c r="V316" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="317" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B317" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C317" s="6" t="s">
         <v>2</v>
@@ -21683,7 +21683,7 @@
       <c r="I317" s="6"/>
       <c r="J317" s="7"/>
       <c r="K317" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L317" s="6"/>
       <c r="M317" s="6" t="s">
@@ -21702,15 +21702,15 @@
         <v>28</v>
       </c>
       <c r="V317" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="318" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B318" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>2</v>
@@ -21747,10 +21747,10 @@
     </row>
     <row r="319" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B319" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>2</v>
@@ -21769,7 +21769,7 @@
         <v>10</v>
       </c>
       <c r="K319" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L319" s="6"/>
       <c r="M319" s="6" t="s">
@@ -21788,15 +21788,15 @@
         <v>28</v>
       </c>
       <c r="V319" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="320" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B320" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C320" s="6" t="s">
         <v>2</v>
@@ -21833,10 +21833,10 @@
     </row>
     <row r="321" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B321" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>2</v>
@@ -21878,15 +21878,15 @@
         <v>28</v>
       </c>
       <c r="V321" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="322" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B322" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>2</v>
@@ -21920,15 +21920,15 @@
         <v>28</v>
       </c>
       <c r="V322" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="323" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B323" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>2</v>
@@ -21942,7 +21942,7 @@
         <v>1982</v>
       </c>
       <c r="H323" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I323" s="6"/>
       <c r="J323" s="7"/>
@@ -21966,15 +21966,15 @@
         <v>28</v>
       </c>
       <c r="V323" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="324" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B324" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>2</v>
@@ -22014,15 +22014,15 @@
         <v>28</v>
       </c>
       <c r="V324" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="325" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B325" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>2</v>
@@ -22074,15 +22074,15 @@
         <v>28</v>
       </c>
       <c r="V325" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="326" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B326" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C326" s="6" t="s">
         <v>2</v>
@@ -22116,15 +22116,15 @@
         <v>28</v>
       </c>
       <c r="V326" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="327" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B327" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>2</v>
@@ -22158,15 +22158,15 @@
         <v>28</v>
       </c>
       <c r="V327" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="328" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B328" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>2</v>
@@ -22200,15 +22200,15 @@
         <v>28</v>
       </c>
       <c r="V328" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="329" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B329" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C329" s="6" t="s">
         <v>2</v>
@@ -22227,7 +22227,7 @@
         <v>10</v>
       </c>
       <c r="K329" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L329" s="6"/>
       <c r="M329" s="6" t="s">
@@ -22246,15 +22246,15 @@
         <v>28</v>
       </c>
       <c r="V329" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="330" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B330" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C330" s="6" t="s">
         <v>2</v>
@@ -22269,7 +22269,7 @@
       <c r="I330" s="6"/>
       <c r="J330" s="7"/>
       <c r="K330" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L330" s="6"/>
       <c r="M330" s="6" t="s">
@@ -22288,15 +22288,15 @@
         <v>28</v>
       </c>
       <c r="V330" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="331" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B331" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C331" s="6" t="s">
         <v>2</v>
@@ -22330,15 +22330,15 @@
         <v>28</v>
       </c>
       <c r="V331" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="332" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B332" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>2</v>
@@ -22365,7 +22365,7 @@
         <v>1969</v>
       </c>
       <c r="K332" s="7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L332" s="6" t="s">
         <v>2</v>
@@ -22390,15 +22390,15 @@
         <v>28</v>
       </c>
       <c r="V332" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="333" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B333" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C333" s="6" t="s">
         <v>2</v>
@@ -22432,15 +22432,15 @@
         <v>28</v>
       </c>
       <c r="V333" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="334" spans="1:22" ht="51" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B334" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C334" s="6" t="s">
         <v>2</v>
@@ -22474,15 +22474,15 @@
         <v>28</v>
       </c>
       <c r="V334" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="335" spans="1:22" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B335" s="33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C335" s="10" t="s">
         <v>2</v>
@@ -22516,15 +22516,15 @@
         <v>28</v>
       </c>
       <c r="V335" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="336" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A336" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B336" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C336" s="4"/>
       <c r="D336" s="4" t="s">
@@ -22566,15 +22566,15 @@
         <v>4</v>
       </c>
       <c r="V336" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="337" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A337" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B337" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C337" s="4"/>
       <c r="D337" s="4" t="s">
@@ -22612,15 +22612,15 @@
         <v>28</v>
       </c>
       <c r="V337" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="338" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B338" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>2</v>
@@ -22662,15 +22662,15 @@
         <v>4</v>
       </c>
       <c r="V338" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="339" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A339" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B339" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C339" s="4"/>
       <c r="D339" s="4" t="s">
@@ -22704,15 +22704,15 @@
         <v>4</v>
       </c>
       <c r="V339" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="340" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A340" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B340" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>2</v>
@@ -22751,10 +22751,10 @@
     </row>
     <row r="341" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A341" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B341" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>2</v>
@@ -22793,10 +22793,10 @@
     </row>
     <row r="342" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A342" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B342" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>2</v>
@@ -22841,10 +22841,10 @@
     </row>
     <row r="343" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A343" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B343" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>2</v>
@@ -22883,10 +22883,10 @@
     </row>
     <row r="344" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A344" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B344" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C344" s="4"/>
       <c r="D344" s="4" t="s">
@@ -22920,15 +22920,15 @@
         <v>4</v>
       </c>
       <c r="V344" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="345" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A345" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B345" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>2</v>
@@ -22951,7 +22951,7 @@
         <v>2005</v>
       </c>
       <c r="K345" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L345" s="4" t="s">
         <v>2</v>
@@ -22972,15 +22972,15 @@
         <v>4</v>
       </c>
       <c r="V345" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="346" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A346" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B346" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
@@ -23014,15 +23014,15 @@
         <v>4</v>
       </c>
       <c r="V346" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="347" spans="1:22" ht="51" x14ac:dyDescent="0.25">
       <c r="A347" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B347" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>2</v>
@@ -23063,10 +23063,10 @@
     </row>
     <row r="348" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A348" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B348" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>2</v>
@@ -23109,10 +23109,10 @@
     </row>
     <row r="349" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A349" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B349" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>2</v>
@@ -23156,15 +23156,15 @@
         <v>4</v>
       </c>
       <c r="V349" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="350" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A350" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B350" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C350" s="4"/>
       <c r="D350" s="4" t="s">
@@ -23199,10 +23199,10 @@
     </row>
     <row r="351" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A351" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B351" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>2</v>
@@ -23250,15 +23250,15 @@
         <v>28</v>
       </c>
       <c r="V351" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="352" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A352" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B352" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>2</v>
@@ -23306,15 +23306,15 @@
         <v>28</v>
       </c>
       <c r="V352" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="353" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A353" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B353" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>2</v>
@@ -23362,15 +23362,15 @@
         <v>4</v>
       </c>
       <c r="V353" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="354" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A354" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B354" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>2</v>
@@ -23420,15 +23420,15 @@
         <v>28</v>
       </c>
       <c r="V354" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="355" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A355" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B355" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>2</v>
@@ -23482,15 +23482,15 @@
         <v>4</v>
       </c>
       <c r="V355" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="356" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A356" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B356" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>2</v>
@@ -23505,7 +23505,7 @@
       <c r="I356" s="6"/>
       <c r="J356" s="7"/>
       <c r="K356" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L356" s="4" t="s">
         <v>2</v>
@@ -23531,10 +23531,10 @@
     </row>
     <row r="357" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A357" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B357" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>2</v>
@@ -23582,15 +23582,15 @@
       <c r="T357" s="7"/>
       <c r="U357" s="7"/>
       <c r="V357" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="358" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A358" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B358" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>2</v>
@@ -23630,15 +23630,15 @@
         <v>4</v>
       </c>
       <c r="V358" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="359" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A359" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B359" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C359" s="4"/>
       <c r="D359" s="4" t="s">
@@ -23681,10 +23681,10 @@
     </row>
     <row r="360" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A360" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B360" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>2</v>
@@ -23732,7 +23732,7 @@
         <v>4</v>
       </c>
       <c r="V360" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
